--- a/Data/Woolies Extracted/Woolies fruit-veg info.xlsx
+++ b/Data/Woolies Extracted/Woolies fruit-veg info.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nplon\Documents\Legacy\Code\Grocery\Data\Woolies Extracted\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB75F33-25F4-4FEA-ABC8-65B49AB57793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -8186,8 +8192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8263,13 +8269,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8307,7 +8321,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8341,6 +8355,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8375,9 +8390,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8550,14 +8566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8628,7 +8646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -8687,7 +8705,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8707,10 +8725,10 @@
         <v>1694</v>
       </c>
       <c r="G3">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H3">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I3" t="s">
         <v>1700</v>
@@ -8746,7 +8764,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8766,10 +8784,10 @@
         <v>1694</v>
       </c>
       <c r="G4">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="H4">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I4" t="s">
         <v>1701</v>
@@ -8805,7 +8823,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8864,7 +8882,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8884,10 +8902,10 @@
         <v>1694</v>
       </c>
       <c r="G6">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H6">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I6" t="s">
         <v>1703</v>
@@ -8923,7 +8941,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -8946,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="I7" t="s">
         <v>1704</v>
@@ -8988,7 +9006,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -9008,10 +9026,10 @@
         <v>1695</v>
       </c>
       <c r="G8">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H8">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I8" t="s">
         <v>1705</v>
@@ -9047,7 +9065,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -9106,7 +9124,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -9165,7 +9183,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -9224,7 +9242,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -9244,10 +9262,10 @@
         <v>1694</v>
       </c>
       <c r="G12">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H12">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I12" t="s">
         <v>1709</v>
@@ -9283,7 +9301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9339,7 +9357,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -9398,7 +9416,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -9457,7 +9475,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9516,7 +9534,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -9575,7 +9593,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9634,7 +9652,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -9693,7 +9711,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -9752,7 +9770,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -9811,7 +9829,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -9876,7 +9894,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9947,7 +9965,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10006,7 +10024,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -10065,7 +10083,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -10124,7 +10142,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -10183,7 +10201,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -10248,7 +10266,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -10313,7 +10331,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -10372,7 +10390,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -10431,7 +10449,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10487,7 +10505,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -10558,7 +10576,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10620,7 +10638,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -10679,7 +10697,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -10741,7 +10759,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -10806,7 +10824,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10826,7 +10844,7 @@
         <v>1695</v>
       </c>
       <c r="G38">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H38">
         <v>11</v>
@@ -10871,7 +10889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -10933,7 +10951,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -10992,7 +11010,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -11060,7 +11078,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -11119,7 +11137,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -11175,7 +11193,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -11234,7 +11252,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -11293,7 +11311,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -11313,10 +11331,10 @@
         <v>1694</v>
       </c>
       <c r="G46">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H46">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I46" t="s">
         <v>1741</v>
@@ -11352,7 +11370,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -11411,7 +11429,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -11470,7 +11488,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -11526,7 +11544,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -11549,7 +11567,7 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="I50" t="s">
         <v>1704</v>
@@ -11591,7 +11609,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -11662,7 +11680,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -11682,10 +11700,10 @@
         <v>1694</v>
       </c>
       <c r="G52">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H52">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I52" t="s">
         <v>1741</v>
@@ -11721,7 +11739,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -11792,7 +11810,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -11851,7 +11869,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -11907,7 +11925,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -11963,7 +11981,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -12022,7 +12040,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -12081,7 +12099,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -12140,7 +12158,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -12199,7 +12217,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -12255,7 +12273,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -12311,7 +12329,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -12379,7 +12397,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -12438,7 +12456,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -12497,7 +12515,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -12562,7 +12580,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -12618,7 +12636,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -12638,7 +12656,7 @@
         <v>1695</v>
       </c>
       <c r="G68">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H68">
         <v>32.67</v>
@@ -12677,7 +12695,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -12739,7 +12757,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -12810,7 +12828,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -12869,7 +12887,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -12928,7 +12946,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -12987,7 +13005,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -13049,7 +13067,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -13108,7 +13126,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -13167,7 +13185,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -13232,7 +13250,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -13291,7 +13309,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -13311,10 +13329,10 @@
         <v>1694</v>
       </c>
       <c r="G79">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H79">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I79" t="s">
         <v>1763</v>
@@ -13350,7 +13368,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -13421,7 +13439,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -13477,7 +13495,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -13536,7 +13554,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -13595,7 +13613,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -13651,7 +13669,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -13707,7 +13725,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -13778,7 +13796,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -13837,7 +13855,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -13896,7 +13914,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -13955,7 +13973,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -14014,7 +14032,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -14073,7 +14091,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -14132,7 +14150,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>113</v>
       </c>
@@ -14191,7 +14209,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -14262,7 +14280,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -14321,7 +14339,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -14380,7 +14398,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -14439,7 +14457,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -14510,7 +14528,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -14530,10 +14548,10 @@
         <v>1695</v>
       </c>
       <c r="G99">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H99">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I99" t="s">
         <v>1778</v>
@@ -14569,7 +14587,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -14628,7 +14646,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -14687,7 +14705,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -14746,7 +14764,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -14811,7 +14829,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -14870,7 +14888,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -14929,7 +14947,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -14988,7 +15006,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -15053,7 +15071,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -15124,7 +15142,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -15195,7 +15213,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -15254,7 +15272,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>131</v>
       </c>
@@ -15319,7 +15337,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -15378,7 +15396,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -15437,7 +15455,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -15457,10 +15475,10 @@
         <v>1695</v>
       </c>
       <c r="G114">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H114">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I114" t="s">
         <v>1787</v>
@@ -15496,7 +15514,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>135</v>
       </c>
@@ -15555,7 +15573,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -15575,10 +15593,10 @@
         <v>1694</v>
       </c>
       <c r="G116">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H116">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I116" t="s">
         <v>1789</v>
@@ -15611,7 +15629,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>137</v>
       </c>
@@ -15670,7 +15688,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -15729,7 +15747,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -15788,7 +15806,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -15844,7 +15862,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -15864,10 +15882,10 @@
         <v>1695</v>
       </c>
       <c r="G121">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H121">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I121" t="s">
         <v>1792</v>
@@ -15903,7 +15921,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -15923,10 +15941,10 @@
         <v>1695</v>
       </c>
       <c r="G122">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H122">
-        <v>16.33</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I122" t="s">
         <v>1793</v>
@@ -15962,7 +15980,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -16021,7 +16039,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -16044,7 +16062,7 @@
         <v>6.95</v>
       </c>
       <c r="H124">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I124" t="s">
         <v>1795</v>
@@ -16086,7 +16104,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>143</v>
       </c>
@@ -16145,7 +16163,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -16165,10 +16183,10 @@
         <v>1695</v>
       </c>
       <c r="G126">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H126">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I126" t="s">
         <v>1797</v>
@@ -16201,7 +16219,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -16260,7 +16278,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -16319,7 +16337,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -16339,10 +16357,10 @@
         <v>1695</v>
       </c>
       <c r="G129">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H129">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I129" t="s">
         <v>1797</v>
@@ -16378,7 +16396,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -16437,7 +16455,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -16493,7 +16511,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -16549,7 +16567,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -16620,7 +16638,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -16685,7 +16703,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -16750,7 +16768,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -16809,7 +16827,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -16868,7 +16886,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -16927,7 +16945,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -16983,7 +17001,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -17054,7 +17072,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -17119,7 +17137,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -17190,7 +17208,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -17249,7 +17267,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -17320,7 +17338,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -17391,7 +17409,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -17450,7 +17468,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -17509,7 +17527,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>166</v>
       </c>
@@ -17574,7 +17592,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -17633,7 +17651,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -17692,7 +17710,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -17748,7 +17766,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>170</v>
       </c>
@@ -17807,7 +17825,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -17863,7 +17881,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>172</v>
       </c>
@@ -17922,7 +17940,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -17981,7 +17999,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -18040,7 +18058,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -18096,7 +18114,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -18116,7 +18134,7 @@
         <v>1695</v>
       </c>
       <c r="G158">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H158">
         <v>1.63</v>
@@ -18155,7 +18173,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -18175,10 +18193,10 @@
         <v>1694</v>
       </c>
       <c r="G159">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="H159">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I159" t="s">
         <v>1701</v>
@@ -18214,7 +18232,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -18273,7 +18291,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -18344,7 +18362,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -18403,7 +18421,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -18474,7 +18492,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -18533,7 +18551,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -18598,7 +18616,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -18657,7 +18675,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -18716,7 +18734,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -18775,7 +18793,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -18834,7 +18852,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -18893,7 +18911,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -18961,7 +18979,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -19020,7 +19038,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -19079,7 +19097,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -19150,7 +19168,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -19209,7 +19227,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -19268,7 +19286,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>195</v>
       </c>
@@ -19327,7 +19345,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>196</v>
       </c>
@@ -19392,7 +19410,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -19457,7 +19475,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -19516,7 +19534,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -19587,7 +19605,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -19646,7 +19664,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -19705,7 +19723,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -19764,7 +19782,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -19784,10 +19802,10 @@
         <v>1694</v>
       </c>
       <c r="G185">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H185">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I185" t="s">
         <v>1741</v>
@@ -19823,7 +19841,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -19882,7 +19900,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>205</v>
       </c>
@@ -19902,10 +19920,10 @@
         <v>1695</v>
       </c>
       <c r="G187">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H187">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I187" t="s">
         <v>1829</v>
@@ -19941,7 +19959,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -19997,7 +20015,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>207</v>
       </c>
@@ -20065,7 +20083,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -20121,7 +20139,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -20180,7 +20198,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>210</v>
       </c>
@@ -20203,7 +20221,7 @@
         <v>6.95</v>
       </c>
       <c r="H192">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I192" t="s">
         <v>1795</v>
@@ -20248,7 +20266,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -20268,10 +20286,10 @@
         <v>1695</v>
       </c>
       <c r="G193">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H193">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I193" t="s">
         <v>1833</v>
@@ -20316,7 +20334,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>212</v>
       </c>
@@ -20378,7 +20396,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -20437,7 +20455,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>214</v>
       </c>
@@ -20505,7 +20523,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>215</v>
       </c>
@@ -20561,7 +20579,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -20620,7 +20638,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>217</v>
       </c>
@@ -20679,7 +20697,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>218</v>
       </c>
@@ -20738,7 +20756,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>219</v>
       </c>
@@ -20794,7 +20812,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>220</v>
       </c>
@@ -20853,7 +20871,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>221</v>
       </c>
@@ -20912,7 +20930,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>222</v>
       </c>
@@ -20932,10 +20950,10 @@
         <v>1694</v>
       </c>
       <c r="G204">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H204">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I204" t="s">
         <v>1839</v>
@@ -20968,7 +20986,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>223</v>
       </c>
@@ -21027,7 +21045,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>224</v>
       </c>
@@ -21050,7 +21068,7 @@
         <v>6.5</v>
       </c>
       <c r="H206">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="I206" t="s">
         <v>1841</v>
@@ -21086,7 +21104,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>225</v>
       </c>
@@ -21157,7 +21175,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -21228,7 +21246,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>227</v>
       </c>
@@ -21296,7 +21314,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>228</v>
       </c>
@@ -21316,7 +21334,7 @@
         <v>1695</v>
       </c>
       <c r="G210">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H210">
         <v>15.33</v>
@@ -21361,7 +21379,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -21420,7 +21438,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -21479,7 +21497,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>231</v>
       </c>
@@ -21538,7 +21556,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>232</v>
       </c>
@@ -21597,7 +21615,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -21662,7 +21680,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>234</v>
       </c>
@@ -21727,7 +21745,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>235</v>
       </c>
@@ -21798,7 +21816,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>236</v>
       </c>
@@ -21857,7 +21875,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>237</v>
       </c>
@@ -21922,7 +21940,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>238</v>
       </c>
@@ -21981,7 +21999,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -22049,7 +22067,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -22108,7 +22126,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>241</v>
       </c>
@@ -22167,7 +22185,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>242</v>
       </c>
@@ -22190,7 +22208,7 @@
         <v>5.5</v>
       </c>
       <c r="H224">
-        <v>18.33</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="I224" t="s">
         <v>1847</v>
@@ -22226,7 +22244,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>243</v>
       </c>
@@ -22291,7 +22309,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>244</v>
       </c>
@@ -22350,7 +22368,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -22415,7 +22433,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -22474,7 +22492,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>247</v>
       </c>
@@ -22542,7 +22560,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>113</v>
       </c>
@@ -22601,7 +22619,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>248</v>
       </c>
@@ -22657,7 +22675,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>249</v>
       </c>
@@ -22716,7 +22734,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>250</v>
       </c>
@@ -22775,7 +22793,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>251</v>
       </c>
@@ -22834,7 +22852,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>252</v>
       </c>
@@ -22893,7 +22911,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>253</v>
       </c>
@@ -22952,7 +22970,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>254</v>
       </c>
@@ -23020,7 +23038,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>255</v>
       </c>
@@ -23079,7 +23097,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>256</v>
       </c>
@@ -23135,7 +23153,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -23200,7 +23218,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>258</v>
       </c>
@@ -23256,7 +23274,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>259</v>
       </c>
@@ -23315,7 +23333,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>260</v>
       </c>
@@ -23380,7 +23398,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>261</v>
       </c>
@@ -23439,7 +23457,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>207</v>
       </c>
@@ -23507,7 +23525,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -23566,7 +23584,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -23634,7 +23652,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -23693,7 +23711,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -23749,7 +23767,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -23808,7 +23826,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -23867,7 +23885,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -23923,7 +23941,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -23982,7 +24000,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -24041,7 +24059,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -24100,7 +24118,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -24156,7 +24174,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -24215,7 +24233,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -24274,7 +24292,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -24297,7 +24315,7 @@
         <v>5.6</v>
       </c>
       <c r="H259">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I259" t="s">
         <v>1858</v>
@@ -24333,7 +24351,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -24353,10 +24371,10 @@
         <v>1694</v>
       </c>
       <c r="G260">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H260">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I260" t="s">
         <v>1859</v>
@@ -24389,7 +24407,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -24448,7 +24466,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -24468,10 +24486,10 @@
         <v>1694</v>
       </c>
       <c r="G262">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H262">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I262" t="s">
         <v>1741</v>
@@ -24507,7 +24525,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -24563,7 +24581,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -24628,7 +24646,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -24693,7 +24711,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -24749,7 +24767,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -24808,7 +24826,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -24867,7 +24885,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -24923,7 +24941,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -24991,7 +25009,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -25050,7 +25068,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -25109,7 +25127,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>289</v>
       </c>
@@ -25165,7 +25183,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>290</v>
       </c>
@@ -25224,7 +25242,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>291</v>
       </c>
@@ -25286,7 +25304,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>292</v>
       </c>
@@ -25351,7 +25369,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -25410,7 +25428,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>294</v>
       </c>
@@ -25430,10 +25448,10 @@
         <v>1694</v>
       </c>
       <c r="G278">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H278">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I278" t="s">
         <v>1867</v>
@@ -25466,7 +25484,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>161</v>
       </c>
@@ -25525,7 +25543,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -25596,7 +25614,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -25619,7 +25637,7 @@
         <v>3.3</v>
       </c>
       <c r="H281">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I281" t="s">
         <v>1867</v>
@@ -25652,7 +25670,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -25708,7 +25726,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -25728,10 +25746,10 @@
         <v>1695</v>
       </c>
       <c r="G283">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H283">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I283" t="s">
         <v>1792</v>
@@ -25767,7 +25785,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -25826,7 +25844,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -25888,7 +25906,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>177</v>
       </c>
@@ -25947,7 +25965,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>301</v>
       </c>
@@ -26006,7 +26024,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -26065,7 +26083,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>168</v>
       </c>
@@ -26124,7 +26142,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>303</v>
       </c>
@@ -26183,7 +26201,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>304</v>
       </c>
@@ -26242,7 +26260,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>305</v>
       </c>
@@ -26301,7 +26319,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>306</v>
       </c>
@@ -26360,7 +26378,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>307</v>
       </c>
@@ -26425,7 +26443,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>308</v>
       </c>
@@ -26490,7 +26508,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>309</v>
       </c>
@@ -26549,7 +26567,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -26608,7 +26626,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -26667,7 +26685,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>312</v>
       </c>
@@ -26732,7 +26750,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>313</v>
       </c>
@@ -26752,7 +26770,7 @@
         <v>1695</v>
       </c>
       <c r="G300">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H300">
         <v>28</v>
@@ -26788,7 +26806,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>314</v>
       </c>
@@ -26847,7 +26865,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>315</v>
       </c>
@@ -26912,7 +26930,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>316</v>
       </c>
@@ -26971,7 +26989,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -27030,7 +27048,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>318</v>
       </c>
@@ -27089,7 +27107,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>319</v>
       </c>
@@ -27148,7 +27166,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>320</v>
       </c>
@@ -27210,7 +27228,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>321</v>
       </c>
@@ -27278,7 +27296,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>322</v>
       </c>
@@ -27337,7 +27355,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -27357,10 +27375,10 @@
         <v>1694</v>
       </c>
       <c r="G310">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H310">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I310" t="s">
         <v>1741</v>
@@ -27396,7 +27414,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>324</v>
       </c>
@@ -27464,7 +27482,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>325</v>
       </c>
@@ -27484,10 +27502,10 @@
         <v>1695</v>
       </c>
       <c r="G312">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H312">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I312" t="s">
         <v>1792</v>
@@ -27523,7 +27541,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>326</v>
       </c>
@@ -27582,7 +27600,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>327</v>
       </c>
@@ -27647,7 +27665,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>328</v>
       </c>
@@ -27706,7 +27724,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>329</v>
       </c>
@@ -27771,7 +27789,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>330</v>
       </c>
@@ -27839,7 +27857,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>331</v>
       </c>
@@ -27907,7 +27925,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>332</v>
       </c>
@@ -27969,7 +27987,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>333</v>
       </c>
@@ -28037,7 +28055,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>334</v>
       </c>
@@ -28060,7 +28078,7 @@
         <v>3</v>
       </c>
       <c r="H321">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I321" t="s">
         <v>1879</v>
@@ -28102,7 +28120,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>335</v>
       </c>
@@ -28122,10 +28140,10 @@
         <v>1694</v>
       </c>
       <c r="G322">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H322">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I322" t="s">
         <v>1880</v>
@@ -28161,7 +28179,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>336</v>
       </c>
@@ -28184,7 +28202,7 @@
         <v>3</v>
       </c>
       <c r="H323">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I323" t="s">
         <v>1879</v>
@@ -28226,7 +28244,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>337</v>
       </c>
@@ -28285,7 +28303,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>338</v>
       </c>
@@ -28341,7 +28359,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>339</v>
       </c>
@@ -28400,7 +28418,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>340</v>
       </c>
@@ -28468,7 +28486,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>341</v>
       </c>
@@ -28527,7 +28545,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>342</v>
       </c>
@@ -28592,7 +28610,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>255</v>
       </c>
@@ -28651,7 +28669,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>343</v>
       </c>
@@ -28710,7 +28728,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>344</v>
       </c>
@@ -28769,7 +28787,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>345</v>
       </c>
@@ -28828,7 +28846,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>346</v>
       </c>
@@ -28893,7 +28911,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>347</v>
       </c>
@@ -28952,7 +28970,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>348</v>
       </c>
@@ -29017,7 +29035,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>349</v>
       </c>
@@ -29076,7 +29094,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>350</v>
       </c>
@@ -29135,7 +29153,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>351</v>
       </c>
@@ -29194,7 +29212,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>352</v>
       </c>
@@ -29259,7 +29277,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>353</v>
       </c>
@@ -29315,7 +29333,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>354</v>
       </c>
@@ -29374,7 +29392,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>355</v>
       </c>
@@ -29433,7 +29451,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>356</v>
       </c>
@@ -29492,7 +29510,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>357</v>
       </c>
@@ -29551,7 +29569,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>358</v>
       </c>
@@ -29610,7 +29628,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>359</v>
       </c>
@@ -29633,7 +29651,7 @@
         <v>2.9</v>
       </c>
       <c r="H347">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="I347" t="s">
         <v>1893</v>
@@ -29663,7 +29681,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>360</v>
       </c>
@@ -29728,7 +29746,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>361</v>
       </c>
@@ -29748,7 +29766,7 @@
         <v>1695</v>
       </c>
       <c r="G349">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H349">
         <v>28</v>
@@ -29787,7 +29805,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>362</v>
       </c>
@@ -29846,7 +29864,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>363</v>
       </c>
@@ -29905,7 +29923,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>364</v>
       </c>
@@ -29964,7 +29982,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>365</v>
       </c>
@@ -30023,7 +30041,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>366</v>
       </c>
@@ -30091,7 +30109,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>367</v>
       </c>
@@ -30156,7 +30174,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>368</v>
       </c>
@@ -30227,7 +30245,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>369</v>
       </c>
@@ -30283,7 +30301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>267</v>
       </c>
@@ -30342,7 +30360,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>270</v>
       </c>
@@ -30398,7 +30416,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="360" spans="1:23">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>370</v>
       </c>
@@ -30454,7 +30472,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>371</v>
       </c>
@@ -30513,7 +30531,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>372</v>
       </c>
@@ -30572,7 +30590,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>373</v>
       </c>
@@ -30631,7 +30649,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>374</v>
       </c>
@@ -30690,7 +30708,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>375</v>
       </c>
@@ -30749,7 +30767,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>376</v>
       </c>
@@ -30805,7 +30823,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>377</v>
       </c>
@@ -30870,7 +30888,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>378</v>
       </c>
@@ -30929,7 +30947,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>379</v>
       </c>
@@ -30985,7 +31003,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>380</v>
       </c>
@@ -31044,7 +31062,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>381</v>
       </c>
@@ -31106,7 +31124,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>382</v>
       </c>
@@ -31165,7 +31183,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>383</v>
       </c>
@@ -31224,7 +31242,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>384</v>
       </c>
@@ -31283,7 +31301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>385</v>
       </c>
@@ -31342,7 +31360,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>386</v>
       </c>
@@ -31407,7 +31425,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>387</v>
       </c>
@@ -31463,7 +31481,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>388</v>
       </c>
@@ -31519,7 +31537,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>389</v>
       </c>
@@ -31578,7 +31596,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>390</v>
       </c>
@@ -31637,7 +31655,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>391</v>
       </c>
@@ -31696,7 +31714,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>392</v>
       </c>
@@ -31716,10 +31734,10 @@
         <v>1694</v>
       </c>
       <c r="G382">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H382">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I382" t="s">
         <v>1741</v>
@@ -31755,7 +31773,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>388</v>
       </c>
@@ -31775,10 +31793,10 @@
         <v>1695</v>
       </c>
       <c r="G383">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H383">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I383" t="s">
         <v>1797</v>
@@ -31814,7 +31832,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>393</v>
       </c>
@@ -31870,7 +31888,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>394</v>
       </c>
@@ -31938,7 +31956,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>395</v>
       </c>
@@ -31994,7 +32012,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>396</v>
       </c>
@@ -32050,7 +32068,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>397</v>
       </c>
@@ -32115,7 +32133,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>398</v>
       </c>
@@ -32174,7 +32192,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>399</v>
       </c>
@@ -32239,7 +32257,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>400</v>
       </c>
@@ -32295,7 +32313,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>401</v>
       </c>
@@ -32354,7 +32372,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>402</v>
       </c>
@@ -32410,7 +32428,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="394" spans="1:23">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>403</v>
       </c>
@@ -32469,7 +32487,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>404</v>
       </c>
@@ -32528,7 +32546,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>405</v>
       </c>
@@ -32587,7 +32605,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>406</v>
       </c>
@@ -32643,7 +32661,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>407</v>
       </c>
@@ -32702,7 +32720,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>408</v>
       </c>
@@ -32761,7 +32779,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>409</v>
       </c>
@@ -32820,7 +32838,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>410</v>
       </c>
@@ -32876,7 +32894,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>411</v>
       </c>
@@ -32935,7 +32953,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>412</v>
       </c>
@@ -32991,7 +33009,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>413</v>
       </c>
@@ -33050,7 +33068,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>414</v>
       </c>
@@ -33070,10 +33088,10 @@
         <v>1694</v>
       </c>
       <c r="G405">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H405">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="I405" t="s">
         <v>1913</v>
@@ -33109,7 +33127,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>415</v>
       </c>
@@ -33165,7 +33183,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>416</v>
       </c>
@@ -33227,7 +33245,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>417</v>
       </c>
@@ -33283,7 +33301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="409" spans="1:23">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>418</v>
       </c>
@@ -33342,7 +33360,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="410" spans="1:23">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>419</v>
       </c>
@@ -33398,7 +33416,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>420</v>
       </c>
@@ -33454,7 +33472,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>421</v>
       </c>
@@ -33513,7 +33531,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>422</v>
       </c>
@@ -33533,10 +33551,10 @@
         <v>1695</v>
       </c>
       <c r="G413">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H413">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I413" t="s">
         <v>1792</v>
@@ -33572,7 +33590,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>423</v>
       </c>
@@ -33631,7 +33649,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>424</v>
       </c>
@@ -33690,7 +33708,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>425</v>
       </c>
@@ -33752,7 +33770,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="417" spans="1:19">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>426</v>
       </c>
@@ -33811,7 +33829,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="418" spans="1:19">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>427</v>
       </c>
@@ -33867,7 +33885,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="419" spans="1:19">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>428</v>
       </c>
@@ -33923,7 +33941,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="420" spans="1:19">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>428</v>
       </c>
@@ -33979,7 +33997,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="421" spans="1:19">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>429</v>
       </c>
@@ -34038,7 +34056,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="422" spans="1:19">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>430</v>
       </c>
@@ -34097,7 +34115,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>236</v>
       </c>
@@ -34158,428 +34176,428 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
-    <hyperlink ref="E76" r:id="rId75"/>
-    <hyperlink ref="E77" r:id="rId76"/>
-    <hyperlink ref="E78" r:id="rId77"/>
-    <hyperlink ref="E79" r:id="rId78"/>
-    <hyperlink ref="E80" r:id="rId79"/>
-    <hyperlink ref="E81" r:id="rId80"/>
-    <hyperlink ref="E82" r:id="rId81"/>
-    <hyperlink ref="E83" r:id="rId82"/>
-    <hyperlink ref="E84" r:id="rId83"/>
-    <hyperlink ref="E85" r:id="rId84"/>
-    <hyperlink ref="E86" r:id="rId85"/>
-    <hyperlink ref="E87" r:id="rId86"/>
-    <hyperlink ref="E88" r:id="rId87"/>
-    <hyperlink ref="E89" r:id="rId88"/>
-    <hyperlink ref="E90" r:id="rId89"/>
-    <hyperlink ref="E91" r:id="rId90"/>
-    <hyperlink ref="E92" r:id="rId91"/>
-    <hyperlink ref="E93" r:id="rId92"/>
-    <hyperlink ref="E94" r:id="rId93"/>
-    <hyperlink ref="E95" r:id="rId94"/>
-    <hyperlink ref="E96" r:id="rId95"/>
-    <hyperlink ref="E97" r:id="rId96"/>
-    <hyperlink ref="E98" r:id="rId97"/>
-    <hyperlink ref="E99" r:id="rId98"/>
-    <hyperlink ref="E100" r:id="rId99"/>
-    <hyperlink ref="E101" r:id="rId100"/>
-    <hyperlink ref="E102" r:id="rId101"/>
-    <hyperlink ref="E103" r:id="rId102"/>
-    <hyperlink ref="E104" r:id="rId103"/>
-    <hyperlink ref="E105" r:id="rId104"/>
-    <hyperlink ref="E106" r:id="rId105"/>
-    <hyperlink ref="E107" r:id="rId106"/>
-    <hyperlink ref="E108" r:id="rId107"/>
-    <hyperlink ref="E109" r:id="rId108"/>
-    <hyperlink ref="E110" r:id="rId109"/>
-    <hyperlink ref="E111" r:id="rId110"/>
-    <hyperlink ref="E112" r:id="rId111"/>
-    <hyperlink ref="E113" r:id="rId112"/>
-    <hyperlink ref="E114" r:id="rId113"/>
-    <hyperlink ref="E115" r:id="rId114"/>
-    <hyperlink ref="E116" r:id="rId115"/>
-    <hyperlink ref="E117" r:id="rId116"/>
-    <hyperlink ref="E118" r:id="rId117"/>
-    <hyperlink ref="E119" r:id="rId118"/>
-    <hyperlink ref="E120" r:id="rId119"/>
-    <hyperlink ref="E121" r:id="rId120"/>
-    <hyperlink ref="E122" r:id="rId121"/>
-    <hyperlink ref="E123" r:id="rId122"/>
-    <hyperlink ref="E124" r:id="rId123"/>
-    <hyperlink ref="E125" r:id="rId124"/>
-    <hyperlink ref="E126" r:id="rId125"/>
-    <hyperlink ref="E127" r:id="rId126"/>
-    <hyperlink ref="E128" r:id="rId127"/>
-    <hyperlink ref="E129" r:id="rId128"/>
-    <hyperlink ref="E130" r:id="rId129"/>
-    <hyperlink ref="E131" r:id="rId130"/>
-    <hyperlink ref="E132" r:id="rId131"/>
-    <hyperlink ref="E133" r:id="rId132"/>
-    <hyperlink ref="E134" r:id="rId133"/>
-    <hyperlink ref="E135" r:id="rId134"/>
-    <hyperlink ref="E136" r:id="rId135"/>
-    <hyperlink ref="E137" r:id="rId136"/>
-    <hyperlink ref="E138" r:id="rId137"/>
-    <hyperlink ref="E139" r:id="rId138"/>
-    <hyperlink ref="E140" r:id="rId139"/>
-    <hyperlink ref="E141" r:id="rId140"/>
-    <hyperlink ref="E142" r:id="rId141"/>
-    <hyperlink ref="E143" r:id="rId142"/>
-    <hyperlink ref="E144" r:id="rId143"/>
-    <hyperlink ref="E145" r:id="rId144"/>
-    <hyperlink ref="E146" r:id="rId145"/>
-    <hyperlink ref="E147" r:id="rId146"/>
-    <hyperlink ref="E148" r:id="rId147"/>
-    <hyperlink ref="E149" r:id="rId148"/>
-    <hyperlink ref="E150" r:id="rId149"/>
-    <hyperlink ref="E151" r:id="rId150"/>
-    <hyperlink ref="E152" r:id="rId151"/>
-    <hyperlink ref="E153" r:id="rId152"/>
-    <hyperlink ref="E154" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="E156" r:id="rId155"/>
-    <hyperlink ref="E157" r:id="rId156"/>
-    <hyperlink ref="E158" r:id="rId157"/>
-    <hyperlink ref="E159" r:id="rId158"/>
-    <hyperlink ref="E160" r:id="rId159"/>
-    <hyperlink ref="E161" r:id="rId160"/>
-    <hyperlink ref="E162" r:id="rId161"/>
-    <hyperlink ref="E163" r:id="rId162"/>
-    <hyperlink ref="E164" r:id="rId163"/>
-    <hyperlink ref="E165" r:id="rId164"/>
-    <hyperlink ref="E166" r:id="rId165"/>
-    <hyperlink ref="E167" r:id="rId166"/>
-    <hyperlink ref="E168" r:id="rId167"/>
-    <hyperlink ref="E169" r:id="rId168"/>
-    <hyperlink ref="E170" r:id="rId169"/>
-    <hyperlink ref="E171" r:id="rId170"/>
-    <hyperlink ref="E172" r:id="rId171"/>
-    <hyperlink ref="E173" r:id="rId172"/>
-    <hyperlink ref="E174" r:id="rId173"/>
-    <hyperlink ref="E175" r:id="rId174"/>
-    <hyperlink ref="E176" r:id="rId175"/>
-    <hyperlink ref="E177" r:id="rId176"/>
-    <hyperlink ref="E178" r:id="rId177"/>
-    <hyperlink ref="E179" r:id="rId178"/>
-    <hyperlink ref="E180" r:id="rId179"/>
-    <hyperlink ref="E181" r:id="rId180"/>
-    <hyperlink ref="E182" r:id="rId181"/>
-    <hyperlink ref="E183" r:id="rId182"/>
-    <hyperlink ref="E184" r:id="rId183"/>
-    <hyperlink ref="E185" r:id="rId184"/>
-    <hyperlink ref="E186" r:id="rId185"/>
-    <hyperlink ref="E187" r:id="rId186"/>
-    <hyperlink ref="E188" r:id="rId187"/>
-    <hyperlink ref="E189" r:id="rId188"/>
-    <hyperlink ref="E190" r:id="rId189"/>
-    <hyperlink ref="E191" r:id="rId190"/>
-    <hyperlink ref="E192" r:id="rId191"/>
-    <hyperlink ref="E193" r:id="rId192"/>
-    <hyperlink ref="E194" r:id="rId193"/>
-    <hyperlink ref="E195" r:id="rId194"/>
-    <hyperlink ref="E196" r:id="rId195"/>
-    <hyperlink ref="E197" r:id="rId196"/>
-    <hyperlink ref="E198" r:id="rId197"/>
-    <hyperlink ref="E199" r:id="rId198"/>
-    <hyperlink ref="E200" r:id="rId199"/>
-    <hyperlink ref="E201" r:id="rId200"/>
-    <hyperlink ref="E202" r:id="rId201"/>
-    <hyperlink ref="E203" r:id="rId202"/>
-    <hyperlink ref="E204" r:id="rId203"/>
-    <hyperlink ref="E205" r:id="rId204"/>
-    <hyperlink ref="E206" r:id="rId205"/>
-    <hyperlink ref="E207" r:id="rId206"/>
-    <hyperlink ref="E208" r:id="rId207"/>
-    <hyperlink ref="E209" r:id="rId208"/>
-    <hyperlink ref="E210" r:id="rId209"/>
-    <hyperlink ref="E211" r:id="rId210"/>
-    <hyperlink ref="E212" r:id="rId211"/>
-    <hyperlink ref="E213" r:id="rId212"/>
-    <hyperlink ref="E214" r:id="rId213"/>
-    <hyperlink ref="E215" r:id="rId214"/>
-    <hyperlink ref="E216" r:id="rId215"/>
-    <hyperlink ref="E217" r:id="rId216"/>
-    <hyperlink ref="E218" r:id="rId217"/>
-    <hyperlink ref="E219" r:id="rId218"/>
-    <hyperlink ref="E220" r:id="rId219"/>
-    <hyperlink ref="E221" r:id="rId220"/>
-    <hyperlink ref="E222" r:id="rId221"/>
-    <hyperlink ref="E223" r:id="rId222"/>
-    <hyperlink ref="E224" r:id="rId223"/>
-    <hyperlink ref="E225" r:id="rId224"/>
-    <hyperlink ref="E226" r:id="rId225"/>
-    <hyperlink ref="E227" r:id="rId226"/>
-    <hyperlink ref="E228" r:id="rId227"/>
-    <hyperlink ref="E229" r:id="rId228"/>
-    <hyperlink ref="E230" r:id="rId229"/>
-    <hyperlink ref="E231" r:id="rId230"/>
-    <hyperlink ref="E232" r:id="rId231"/>
-    <hyperlink ref="E233" r:id="rId232"/>
-    <hyperlink ref="E234" r:id="rId233"/>
-    <hyperlink ref="E235" r:id="rId234"/>
-    <hyperlink ref="E236" r:id="rId235"/>
-    <hyperlink ref="E237" r:id="rId236"/>
-    <hyperlink ref="E238" r:id="rId237"/>
-    <hyperlink ref="E239" r:id="rId238"/>
-    <hyperlink ref="E240" r:id="rId239"/>
-    <hyperlink ref="E241" r:id="rId240"/>
-    <hyperlink ref="E242" r:id="rId241"/>
-    <hyperlink ref="E243" r:id="rId242"/>
-    <hyperlink ref="E244" r:id="rId243"/>
-    <hyperlink ref="E245" r:id="rId244"/>
-    <hyperlink ref="E246" r:id="rId245"/>
-    <hyperlink ref="E247" r:id="rId246"/>
-    <hyperlink ref="E248" r:id="rId247"/>
-    <hyperlink ref="E249" r:id="rId248"/>
-    <hyperlink ref="E250" r:id="rId249"/>
-    <hyperlink ref="E251" r:id="rId250"/>
-    <hyperlink ref="E252" r:id="rId251"/>
-    <hyperlink ref="E253" r:id="rId252"/>
-    <hyperlink ref="E254" r:id="rId253"/>
-    <hyperlink ref="E255" r:id="rId254"/>
-    <hyperlink ref="E256" r:id="rId255"/>
-    <hyperlink ref="E257" r:id="rId256"/>
-    <hyperlink ref="E258" r:id="rId257"/>
-    <hyperlink ref="E259" r:id="rId258"/>
-    <hyperlink ref="E260" r:id="rId259"/>
-    <hyperlink ref="E261" r:id="rId260"/>
-    <hyperlink ref="E262" r:id="rId261"/>
-    <hyperlink ref="E263" r:id="rId262"/>
-    <hyperlink ref="E264" r:id="rId263"/>
-    <hyperlink ref="E265" r:id="rId264"/>
-    <hyperlink ref="E266" r:id="rId265"/>
-    <hyperlink ref="E267" r:id="rId266"/>
-    <hyperlink ref="E268" r:id="rId267"/>
-    <hyperlink ref="E269" r:id="rId268"/>
-    <hyperlink ref="E270" r:id="rId269"/>
-    <hyperlink ref="E271" r:id="rId270"/>
-    <hyperlink ref="E272" r:id="rId271"/>
-    <hyperlink ref="E273" r:id="rId272"/>
-    <hyperlink ref="E274" r:id="rId273"/>
-    <hyperlink ref="E275" r:id="rId274"/>
-    <hyperlink ref="E276" r:id="rId275"/>
-    <hyperlink ref="E277" r:id="rId276"/>
-    <hyperlink ref="E278" r:id="rId277"/>
-    <hyperlink ref="E279" r:id="rId278"/>
-    <hyperlink ref="E280" r:id="rId279"/>
-    <hyperlink ref="E281" r:id="rId280"/>
-    <hyperlink ref="E282" r:id="rId281"/>
-    <hyperlink ref="E283" r:id="rId282"/>
-    <hyperlink ref="E284" r:id="rId283"/>
-    <hyperlink ref="E285" r:id="rId284"/>
-    <hyperlink ref="E286" r:id="rId285"/>
-    <hyperlink ref="E287" r:id="rId286"/>
-    <hyperlink ref="E288" r:id="rId287"/>
-    <hyperlink ref="E289" r:id="rId288"/>
-    <hyperlink ref="E290" r:id="rId289"/>
-    <hyperlink ref="E291" r:id="rId290"/>
-    <hyperlink ref="E292" r:id="rId291"/>
-    <hyperlink ref="E293" r:id="rId292"/>
-    <hyperlink ref="E294" r:id="rId293"/>
-    <hyperlink ref="E295" r:id="rId294"/>
-    <hyperlink ref="E296" r:id="rId295"/>
-    <hyperlink ref="E297" r:id="rId296"/>
-    <hyperlink ref="E298" r:id="rId297"/>
-    <hyperlink ref="E299" r:id="rId298"/>
-    <hyperlink ref="E300" r:id="rId299"/>
-    <hyperlink ref="E301" r:id="rId300"/>
-    <hyperlink ref="E302" r:id="rId301"/>
-    <hyperlink ref="E303" r:id="rId302"/>
-    <hyperlink ref="E304" r:id="rId303"/>
-    <hyperlink ref="E305" r:id="rId304"/>
-    <hyperlink ref="E306" r:id="rId305"/>
-    <hyperlink ref="E307" r:id="rId306"/>
-    <hyperlink ref="E308" r:id="rId307"/>
-    <hyperlink ref="E309" r:id="rId308"/>
-    <hyperlink ref="E310" r:id="rId309"/>
-    <hyperlink ref="E311" r:id="rId310"/>
-    <hyperlink ref="E312" r:id="rId311"/>
-    <hyperlink ref="E313" r:id="rId312"/>
-    <hyperlink ref="E314" r:id="rId313"/>
-    <hyperlink ref="E315" r:id="rId314"/>
-    <hyperlink ref="E316" r:id="rId315"/>
-    <hyperlink ref="E317" r:id="rId316"/>
-    <hyperlink ref="E318" r:id="rId317"/>
-    <hyperlink ref="E319" r:id="rId318"/>
-    <hyperlink ref="E320" r:id="rId319"/>
-    <hyperlink ref="E321" r:id="rId320"/>
-    <hyperlink ref="E322" r:id="rId321"/>
-    <hyperlink ref="E323" r:id="rId322"/>
-    <hyperlink ref="E324" r:id="rId323"/>
-    <hyperlink ref="E325" r:id="rId324"/>
-    <hyperlink ref="E326" r:id="rId325"/>
-    <hyperlink ref="E327" r:id="rId326"/>
-    <hyperlink ref="E328" r:id="rId327"/>
-    <hyperlink ref="E329" r:id="rId328"/>
-    <hyperlink ref="E330" r:id="rId329"/>
-    <hyperlink ref="E331" r:id="rId330"/>
-    <hyperlink ref="E332" r:id="rId331"/>
-    <hyperlink ref="E333" r:id="rId332"/>
-    <hyperlink ref="E334" r:id="rId333"/>
-    <hyperlink ref="E335" r:id="rId334"/>
-    <hyperlink ref="E336" r:id="rId335"/>
-    <hyperlink ref="E337" r:id="rId336"/>
-    <hyperlink ref="E338" r:id="rId337"/>
-    <hyperlink ref="E339" r:id="rId338"/>
-    <hyperlink ref="E340" r:id="rId339"/>
-    <hyperlink ref="E341" r:id="rId340"/>
-    <hyperlink ref="E342" r:id="rId341"/>
-    <hyperlink ref="E343" r:id="rId342"/>
-    <hyperlink ref="E344" r:id="rId343"/>
-    <hyperlink ref="E345" r:id="rId344"/>
-    <hyperlink ref="E346" r:id="rId345"/>
-    <hyperlink ref="E347" r:id="rId346"/>
-    <hyperlink ref="E348" r:id="rId347"/>
-    <hyperlink ref="E349" r:id="rId348"/>
-    <hyperlink ref="E350" r:id="rId349"/>
-    <hyperlink ref="E351" r:id="rId350"/>
-    <hyperlink ref="E352" r:id="rId351"/>
-    <hyperlink ref="E353" r:id="rId352"/>
-    <hyperlink ref="E354" r:id="rId353"/>
-    <hyperlink ref="E355" r:id="rId354"/>
-    <hyperlink ref="E356" r:id="rId355"/>
-    <hyperlink ref="E357" r:id="rId356"/>
-    <hyperlink ref="E358" r:id="rId357"/>
-    <hyperlink ref="E359" r:id="rId358"/>
-    <hyperlink ref="E360" r:id="rId359"/>
-    <hyperlink ref="E361" r:id="rId360"/>
-    <hyperlink ref="E362" r:id="rId361"/>
-    <hyperlink ref="E363" r:id="rId362"/>
-    <hyperlink ref="E364" r:id="rId363"/>
-    <hyperlink ref="E365" r:id="rId364"/>
-    <hyperlink ref="E366" r:id="rId365"/>
-    <hyperlink ref="E367" r:id="rId366"/>
-    <hyperlink ref="E368" r:id="rId367"/>
-    <hyperlink ref="E369" r:id="rId368"/>
-    <hyperlink ref="E370" r:id="rId369"/>
-    <hyperlink ref="E371" r:id="rId370"/>
-    <hyperlink ref="E372" r:id="rId371"/>
-    <hyperlink ref="E373" r:id="rId372"/>
-    <hyperlink ref="E374" r:id="rId373"/>
-    <hyperlink ref="E375" r:id="rId374"/>
-    <hyperlink ref="E376" r:id="rId375"/>
-    <hyperlink ref="E377" r:id="rId376"/>
-    <hyperlink ref="E378" r:id="rId377"/>
-    <hyperlink ref="E379" r:id="rId378"/>
-    <hyperlink ref="E380" r:id="rId379"/>
-    <hyperlink ref="E381" r:id="rId380"/>
-    <hyperlink ref="E382" r:id="rId381"/>
-    <hyperlink ref="E383" r:id="rId382"/>
-    <hyperlink ref="E384" r:id="rId383"/>
-    <hyperlink ref="E385" r:id="rId384"/>
-    <hyperlink ref="E386" r:id="rId385"/>
-    <hyperlink ref="E387" r:id="rId386"/>
-    <hyperlink ref="E388" r:id="rId387"/>
-    <hyperlink ref="E389" r:id="rId388"/>
-    <hyperlink ref="E390" r:id="rId389"/>
-    <hyperlink ref="E391" r:id="rId390"/>
-    <hyperlink ref="E392" r:id="rId391"/>
-    <hyperlink ref="E393" r:id="rId392"/>
-    <hyperlink ref="E394" r:id="rId393"/>
-    <hyperlink ref="E395" r:id="rId394"/>
-    <hyperlink ref="E396" r:id="rId395"/>
-    <hyperlink ref="E397" r:id="rId396"/>
-    <hyperlink ref="E398" r:id="rId397"/>
-    <hyperlink ref="E399" r:id="rId398"/>
-    <hyperlink ref="E400" r:id="rId399"/>
-    <hyperlink ref="E401" r:id="rId400"/>
-    <hyperlink ref="E402" r:id="rId401"/>
-    <hyperlink ref="E403" r:id="rId402"/>
-    <hyperlink ref="E404" r:id="rId403"/>
-    <hyperlink ref="E405" r:id="rId404"/>
-    <hyperlink ref="E406" r:id="rId405"/>
-    <hyperlink ref="E407" r:id="rId406"/>
-    <hyperlink ref="E408" r:id="rId407"/>
-    <hyperlink ref="E409" r:id="rId408"/>
-    <hyperlink ref="E410" r:id="rId409"/>
-    <hyperlink ref="E411" r:id="rId410"/>
-    <hyperlink ref="E412" r:id="rId411"/>
-    <hyperlink ref="E413" r:id="rId412"/>
-    <hyperlink ref="E414" r:id="rId413"/>
-    <hyperlink ref="E415" r:id="rId414"/>
-    <hyperlink ref="E416" r:id="rId415"/>
-    <hyperlink ref="E417" r:id="rId416"/>
-    <hyperlink ref="E418" r:id="rId417"/>
-    <hyperlink ref="E419" r:id="rId418"/>
-    <hyperlink ref="E420" r:id="rId419"/>
-    <hyperlink ref="E421" r:id="rId420"/>
-    <hyperlink ref="E422" r:id="rId421"/>
-    <hyperlink ref="E423" r:id="rId422"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="E271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="E272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="E274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="E275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="E276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="E277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="E278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="E279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="E280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="E281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="E282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="E283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="E284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="E285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="E286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="E287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="E289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="E291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="E292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="E293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="E294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="E295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="E296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="E297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="E298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="E299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="E300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="E301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="E302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="E303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="E304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="E305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="E306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="E307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="E308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="E309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="E310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="E311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="E312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="E314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="E315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="E316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="E317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="E318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="E319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="E320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="E321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="E322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="E323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="E324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="E325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="E326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="E327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="E328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="E329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="E331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="E332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="E333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="E334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="E335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="E336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="E337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="E338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="E339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="E340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="E341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="E342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="E343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="E344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="E345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="E346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="E347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="E348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="E349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="E351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="E352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="E353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="E354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="E355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="E356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="E357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="E358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="E359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="E360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="E361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="E362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="E363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="E364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="E365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="E366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="E368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="E369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="E370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="E371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="E372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="E373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="E374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="E375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="E376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="E377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="E378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="E379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="E380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="E381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="E382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="E383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="E384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="E385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="E387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="E388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="E389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="E390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="E391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="E392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="E393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="E394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="E395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="E396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="E397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="E398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="E399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="E400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="E401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="E402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="E403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="E404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="E405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="E406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="E407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="E408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="E409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="E410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="E411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="E412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="E413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="E414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="E415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="E416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="E417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="E418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="E419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="E420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="E421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="E422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="E423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
